--- a/Data.xlsx
+++ b/Data.xlsx
@@ -269,10 +269,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.144465073102808"/>
-          <c:y val="0.0508996212121212"/>
-          <c:w val="0.804014852634022"/>
-          <c:h val="0.79202178030303"/>
+          <c:x val="0.144474935260696"/>
+          <c:y val="0.0509056469752575"/>
+          <c:w val="0.803926873574769"/>
+          <c:h val="0.791878773529064"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1125,11 +1125,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="93102748"/>
-        <c:axId val="82693241"/>
+        <c:axId val="37525523"/>
+        <c:axId val="99463270"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="93102748"/>
+        <c:axId val="37525523"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1195,12 +1195,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82693241"/>
+        <c:crossAx val="99463270"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82693241"/>
+        <c:axId val="99463270"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1266,7 +1266,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93102748"/>
+        <c:crossAx val="37525523"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1337,9 +1337,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>231840</xdr:colOff>
+      <xdr:colOff>231120</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>67680</xdr:rowOff>
+      <xdr:rowOff>66960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1348,7 +1348,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
-        <a:ext cx="9307080" cy="6082200"/>
+        <a:ext cx="9313920" cy="6081480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1836,14 +1836,14 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
+      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.89"/>
@@ -1890,6 +1890,9 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="B2" s="1" t="n">
         <v>0</v>
       </c>
@@ -1935,6 +1938,9 @@
       <c r="D3" s="2" t="n">
         <v>0.0409018</v>
       </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" s="2" t="n">
         <v>0.0474286</v>
       </c>
@@ -1944,9 +1950,15 @@
       <c r="H3" s="2" t="n">
         <v>0.00614952</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="I3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
@@ -1962,6 +1974,9 @@
       <c r="D4" s="2" t="n">
         <v>0.0474607</v>
       </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="F4" s="2" t="n">
         <v>0.0493348</v>
       </c>
@@ -1971,8 +1986,15 @@
       <c r="H4" s="2" t="n">
         <v>0.00581918</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="I4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
@@ -1988,13 +2010,24 @@
       <c r="D5" s="2" t="n">
         <v>0.0621942</v>
       </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="F5" s="2" t="n">
         <v>0.0449279</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>0.0446832</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" s="2" t="n">
         <v>0.0415885</v>
       </c>
@@ -2013,6 +2046,9 @@
       <c r="D6" s="2" t="n">
         <v>0.0639161</v>
       </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="F6" s="2" t="n">
         <v>0.0481596</v>
       </c>
@@ -2022,7 +2058,12 @@
       <c r="H6" s="2" t="n">
         <v>0.00567794</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" s="2" t="n">
         <v>0.00243169</v>
       </c>
@@ -2053,7 +2094,9 @@
       <c r="H7" s="2" t="n">
         <v>0.00838671</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="J7" s="2" t="n">
         <v>0.0530662</v>
       </c>
@@ -2084,7 +2127,12 @@
       <c r="G8" s="2" t="n">
         <v>0.0721175</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="J8" s="2" t="n">
         <v>0.0541736</v>
       </c>
@@ -2103,16 +2151,29 @@
         <f aca="false">C8+B9</f>
         <v>48</v>
       </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="F9" s="2" t="n">
         <v>0.0281656</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>0.0954028</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="H9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" s="2" t="n">
-        <v>1.51654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2138,7 +2199,12 @@
       <c r="G10" s="2" t="n">
         <v>0.11318</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="J10" s="2" t="n">
         <v>0.0589593</v>
       </c>
@@ -2172,6 +2238,9 @@
       <c r="H11" s="2" t="n">
         <v>0.00841112</v>
       </c>
+      <c r="I11" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="J11" s="2" t="n">
         <v>0.0793223</v>
       </c>
@@ -2205,6 +2274,9 @@
       <c r="H12" s="2" t="n">
         <v>0.000840528</v>
       </c>
+      <c r="I12" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="J12" s="2" t="n">
         <v>0.0811303</v>
       </c>
@@ -2238,6 +2310,9 @@
       <c r="H13" s="2" t="n">
         <v>0.0151368</v>
       </c>
+      <c r="I13" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="J13" s="2" t="n">
         <v>0.202095</v>
       </c>
@@ -2271,6 +2346,9 @@
       <c r="H14" s="2" t="n">
         <v>0.0142817</v>
       </c>
+      <c r="I14" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="J14" s="2" t="n">
         <v>0.1991</v>
       </c>
@@ -2304,6 +2382,9 @@
       <c r="H15" s="2" t="n">
         <v>0.0366989</v>
       </c>
+      <c r="I15" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="J15" s="2" t="n">
         <v>0.164467</v>
       </c>
@@ -2337,6 +2418,9 @@
       <c r="H16" s="2" t="n">
         <v>0.0286739</v>
       </c>
+      <c r="I16" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="J16" s="2" t="n">
         <v>0.154105</v>
       </c>
@@ -2370,6 +2454,9 @@
       <c r="H17" s="2" t="n">
         <v>0.0312629</v>
       </c>
+      <c r="I17" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="J17" s="2" t="n">
         <v>0.0728137</v>
       </c>
@@ -2403,6 +2490,9 @@
       <c r="H18" s="2" t="n">
         <v>0.0385643</v>
       </c>
+      <c r="I18" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="J18" s="2" t="n">
         <v>0.0800718</v>
       </c>
@@ -2436,6 +2526,9 @@
       <c r="H19" s="2" t="n">
         <v>0.0201548</v>
       </c>
+      <c r="I19" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="J19" s="2" t="n">
         <v>0.0752721</v>
       </c>
@@ -2469,6 +2562,9 @@
       <c r="H20" s="2" t="n">
         <v>0.0234765</v>
       </c>
+      <c r="I20" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="J20" s="2" t="n">
         <v>0.0639461</v>
       </c>
@@ -2502,6 +2598,9 @@
       <c r="H21" s="2" t="n">
         <v>0.0113139</v>
       </c>
+      <c r="I21" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="J21" s="2" t="n">
         <v>0.0676383</v>
       </c>
@@ -2534,6 +2633,9 @@
       </c>
       <c r="H22" s="2" t="n">
         <v>0.0117198</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="J22" s="2" t="n">
         <v>0.0657239</v>
